--- a/xlsx/席根塔勒传记事件_intext.xlsx
+++ b/xlsx/席根塔勒传记事件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t>席根塔勒传记事件</t>
   </si>
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_席根塔勒传记事件</t>
+    <t>政策_政策_维基百科_席根塔勒传记事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%AD%E6%A0%B9%E5%A1%94%E5%8B%92</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>理性 (雜誌)</t>
+    <t>理性 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E5%95%86%E4%B8%9A%E5%91%A8%E5%88%8A</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E9%82%81%E8%80%B6</t>
   </si>
   <si>
-    <t>伯特蘭·邁耶</t>
+    <t>伯特兰·迈耶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英文維基百科</t>
+    <t>英文维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anita_Ramasastry</t>
@@ -347,9 +347,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_Wikipedia</t>
   </si>
   <si>
@@ -359,31 +356,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -473,19 +470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -497,49 +494,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -557,55 +554,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -617,25 +611,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -689,25 +683,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -719,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -761,25 +755,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -791,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -881,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -911,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -941,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -1073,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -1133,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1283,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3297,7 @@
         <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>18</v>
@@ -3329,10 +3323,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3358,10 +3352,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>53</v>
@@ -3387,10 +3381,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3416,10 +3410,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3445,10 +3439,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3474,10 +3468,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3503,10 +3497,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3532,10 +3526,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3561,10 +3555,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3590,10 +3584,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3619,10 +3613,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3648,10 +3642,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3677,10 +3671,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3706,10 +3700,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3735,10 +3729,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3764,10 +3758,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3793,10 +3787,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3822,10 +3816,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3851,10 +3845,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3880,10 +3874,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3909,10 +3903,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3938,10 +3932,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3967,10 +3961,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3996,10 +3990,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4025,10 +4019,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4054,10 +4048,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4083,10 +4077,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4112,10 +4106,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4141,10 +4135,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4170,10 +4164,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4199,10 +4193,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4228,10 +4222,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4257,10 +4251,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4286,10 +4280,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4315,10 +4309,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4344,10 +4338,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4373,10 +4367,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4402,10 +4396,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4431,10 +4425,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4460,10 +4454,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4489,10 +4483,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4518,10 +4512,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4547,10 +4541,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4576,10 +4570,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4605,10 +4599,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4634,10 +4628,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4663,10 +4657,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4692,10 +4686,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4721,10 +4715,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4750,10 +4744,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4779,10 +4773,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4808,10 +4802,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4837,10 +4831,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4866,10 +4860,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4895,10 +4889,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4924,10 +4918,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4953,10 +4947,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4982,10 +4976,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5011,10 +5005,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5040,10 +5034,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5069,10 +5063,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5098,10 +5092,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5127,10 +5121,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5156,10 +5150,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5185,10 +5179,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5214,10 +5208,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5243,10 +5237,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5272,10 +5266,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5301,10 +5295,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5330,10 +5324,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5359,10 +5353,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5388,10 +5382,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5417,10 +5411,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5446,10 +5440,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5475,10 +5469,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5504,10 +5498,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5533,10 +5527,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5562,10 +5556,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5591,10 +5585,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5620,10 +5614,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5649,10 +5643,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5678,10 +5672,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5707,10 +5701,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5736,10 +5730,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5765,10 +5759,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5794,10 +5788,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5823,10 +5817,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5852,10 +5846,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5881,10 +5875,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5910,10 +5904,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5939,10 +5933,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5968,10 +5962,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5997,10 +5991,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6026,10 +6020,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6055,10 +6049,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6084,10 +6078,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6113,10 +6107,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6142,10 +6136,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6171,10 +6165,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6200,10 +6194,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6229,10 +6223,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6258,10 +6252,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6287,10 +6281,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6316,10 +6310,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6345,10 +6339,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6374,10 +6368,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6403,10 +6397,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6432,10 +6426,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6461,10 +6455,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6490,10 +6484,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6519,10 +6513,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6548,10 +6542,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6577,10 +6571,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6606,10 +6600,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6635,10 +6629,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6664,10 +6658,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>64</v>
@@ -6693,10 +6687,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6722,10 +6716,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6751,10 +6745,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6780,10 +6774,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6809,10 +6803,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6838,10 +6832,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6867,10 +6861,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6896,10 +6890,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6925,10 +6919,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6954,10 +6948,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6983,10 +6977,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7012,10 +7006,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7041,10 +7035,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7070,10 +7064,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7099,10 +7093,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7128,10 +7122,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7157,10 +7151,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7186,10 +7180,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7215,10 +7209,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7244,10 +7238,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7273,10 +7267,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7302,10 +7296,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7331,10 +7325,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7360,10 +7354,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7389,10 +7383,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7418,10 +7412,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7447,10 +7441,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7476,10 +7470,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7505,10 +7499,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7534,10 +7528,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7563,10 +7557,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7592,10 +7586,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7621,10 +7615,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7650,10 +7644,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7679,10 +7673,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7708,10 +7702,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7737,10 +7731,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7766,10 +7760,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7795,10 +7789,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7824,10 +7818,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7853,10 +7847,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -7882,10 +7876,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -7911,10 +7905,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -7940,10 +7934,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -7969,10 +7963,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7998,10 +7992,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8027,10 +8021,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8056,10 +8050,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8085,10 +8079,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
